--- a/[60000]{cmd_info}.xlsx
+++ b/[60000]{cmd_info}.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="26085" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="&lt;0&gt;cmd" sheetId="1" r:id="rId1"/>
@@ -2347,8 +2347,8 @@
   <sheetPr/>
   <dimension ref="A1:O426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="A366" sqref="$A366:$XFD377"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
